--- a/artfynd/A 45020-2021.xlsx
+++ b/artfynd/A 45020-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363024</v>
+        <v>111363029</v>
       </c>
       <c r="B2" t="n">
-        <v>77268</v>
+        <v>76918</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>6437</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593291.0260186956</v>
+        <v>593312.9580448985</v>
       </c>
       <c r="R2" t="n">
-        <v>6987171.95495991</v>
+        <v>6987010.291132212</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111363026</v>
+        <v>111363023</v>
       </c>
       <c r="B3" t="n">
-        <v>90854</v>
+        <v>76918</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2079</v>
+        <v>6437</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>593292.3890792141</v>
+        <v>593269.3631576585</v>
       </c>
       <c r="R3" t="n">
-        <v>6987203.815111163</v>
+        <v>6987149.513888635</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111363028</v>
+        <v>111363030</v>
       </c>
       <c r="B4" t="n">
-        <v>77186</v>
+        <v>77268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>593324.0129203054</v>
+        <v>593355.1995546351</v>
       </c>
       <c r="R4" t="n">
-        <v>6987101.07452714</v>
+        <v>6987156.520171621</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111363030</v>
+        <v>111363024</v>
       </c>
       <c r="B5" t="n">
         <v>77268</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>593355.1995546351</v>
+        <v>593291.0260186956</v>
       </c>
       <c r="R5" t="n">
-        <v>6987156.520171621</v>
+        <v>6987171.95495991</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363021</v>
+        <v>111363031</v>
       </c>
       <c r="B6" t="n">
-        <v>89330</v>
+        <v>76918</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3242</v>
+        <v>6437</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593278.356042281</v>
+        <v>593417.4633552339</v>
       </c>
       <c r="R6" t="n">
-        <v>6987153.408284122</v>
+        <v>6986985.556671137</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111363031</v>
+        <v>111363020</v>
       </c>
       <c r="B7" t="n">
-        <v>76918</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>593417.4633552339</v>
+        <v>593324.7367794912</v>
       </c>
       <c r="R7" t="n">
-        <v>6986985.556671137</v>
+        <v>6987171.102828567</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111363025</v>
+        <v>111363021</v>
       </c>
       <c r="B8" t="n">
-        <v>89646</v>
+        <v>89330</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>3242</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>593292.3890792141</v>
+        <v>593278.356042281</v>
       </c>
       <c r="R8" t="n">
-        <v>6987203.815111163</v>
+        <v>6987153.408284122</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111363023</v>
+        <v>111363022</v>
       </c>
       <c r="B9" t="n">
-        <v>76918</v>
+        <v>77186</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>593269.3631576585</v>
+        <v>593324.9051589288</v>
       </c>
       <c r="R9" t="n">
-        <v>6987149.513888635</v>
+        <v>6987181.108611984</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111363020</v>
+        <v>111363025</v>
       </c>
       <c r="B10" t="n">
-        <v>78107</v>
+        <v>89646</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>65</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>593324.7367794912</v>
+        <v>593292.3890792141</v>
       </c>
       <c r="R10" t="n">
-        <v>6987171.102828567</v>
+        <v>6987203.815111163</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111363029</v>
+        <v>111363028</v>
       </c>
       <c r="B11" t="n">
-        <v>76918</v>
+        <v>77186</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>593312.9580448985</v>
+        <v>593324.0129203054</v>
       </c>
       <c r="R11" t="n">
-        <v>6987010.291132212</v>
+        <v>6987101.07452714</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111363022</v>
+        <v>111363026</v>
       </c>
       <c r="B12" t="n">
-        <v>77186</v>
+        <v>90854</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>593324.9051589288</v>
+        <v>593292.3890792141</v>
       </c>
       <c r="R12" t="n">
-        <v>6987181.108611984</v>
+        <v>6987203.815111163</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 45020-2021.xlsx
+++ b/artfynd/A 45020-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363029</v>
+        <v>111363024</v>
       </c>
       <c r="B2" t="n">
-        <v>76918</v>
+        <v>77268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593312.9580448985</v>
+        <v>593291.0260186956</v>
       </c>
       <c r="R2" t="n">
-        <v>6987010.291132212</v>
+        <v>6987171.95495991</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111363030</v>
+        <v>111363026</v>
       </c>
       <c r="B4" t="n">
-        <v>77268</v>
+        <v>90854</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>228912</v>
+        <v>2079</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>593355.1995546351</v>
+        <v>593292.3890792141</v>
       </c>
       <c r="R4" t="n">
-        <v>6987156.520171621</v>
+        <v>6987203.815111163</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111363024</v>
+        <v>111363028</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>77186</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>593291.0260186956</v>
+        <v>593324.0129203054</v>
       </c>
       <c r="R5" t="n">
-        <v>6987171.95495991</v>
+        <v>6987101.07452714</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363031</v>
+        <v>111363030</v>
       </c>
       <c r="B6" t="n">
-        <v>76918</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593417.4633552339</v>
+        <v>593355.1995546351</v>
       </c>
       <c r="R6" t="n">
-        <v>6986985.556671137</v>
+        <v>6987156.520171621</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111363020</v>
+        <v>111363022</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>593324.7367794912</v>
+        <v>593324.9051589288</v>
       </c>
       <c r="R7" t="n">
-        <v>6987171.102828567</v>
+        <v>6987181.108611984</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111363021</v>
+        <v>111363020</v>
       </c>
       <c r="B8" t="n">
-        <v>89330</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3242</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>593278.356042281</v>
+        <v>593324.7367794912</v>
       </c>
       <c r="R8" t="n">
-        <v>6987153.408284122</v>
+        <v>6987171.102828567</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111363022</v>
+        <v>111363021</v>
       </c>
       <c r="B9" t="n">
-        <v>77186</v>
+        <v>89330</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>353</v>
+        <v>3242</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>593324.9051589288</v>
+        <v>593278.356042281</v>
       </c>
       <c r="R9" t="n">
-        <v>6987181.108611984</v>
+        <v>6987153.408284122</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111363025</v>
+        <v>111363031</v>
       </c>
       <c r="B10" t="n">
-        <v>89646</v>
+        <v>76918</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>6437</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>593292.3890792141</v>
+        <v>593417.4633552339</v>
       </c>
       <c r="R10" t="n">
-        <v>6987203.815111163</v>
+        <v>6986985.556671137</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111363028</v>
+        <v>111363025</v>
       </c>
       <c r="B11" t="n">
-        <v>77186</v>
+        <v>89646</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>593324.0129203054</v>
+        <v>593292.3890792141</v>
       </c>
       <c r="R11" t="n">
-        <v>6987101.07452714</v>
+        <v>6987203.815111163</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111363026</v>
+        <v>111363029</v>
       </c>
       <c r="B12" t="n">
-        <v>90854</v>
+        <v>76918</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2079</v>
+        <v>6437</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>593292.3890792141</v>
+        <v>593312.9580448985</v>
       </c>
       <c r="R12" t="n">
-        <v>6987203.815111163</v>
+        <v>6987010.291132212</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 45020-2021.xlsx
+++ b/artfynd/A 45020-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363024</v>
+        <v>111363030</v>
       </c>
       <c r="B2" t="n">
         <v>77268</v>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593291.0260186956</v>
+        <v>593355.1995546351</v>
       </c>
       <c r="R2" t="n">
-        <v>6987171.95495991</v>
+        <v>6987156.520171621</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111363023</v>
+        <v>111363024</v>
       </c>
       <c r="B3" t="n">
-        <v>76918</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>593269.3631576585</v>
+        <v>593291.0260186956</v>
       </c>
       <c r="R3" t="n">
-        <v>6987149.513888635</v>
+        <v>6987171.95495991</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111363026</v>
+        <v>111363023</v>
       </c>
       <c r="B4" t="n">
-        <v>90854</v>
+        <v>76918</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>6437</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>593292.3890792141</v>
+        <v>593269.3631576585</v>
       </c>
       <c r="R4" t="n">
-        <v>6987203.815111163</v>
+        <v>6987149.513888635</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111363028</v>
+        <v>111363026</v>
       </c>
       <c r="B5" t="n">
-        <v>77186</v>
+        <v>90854</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>593324.0129203054</v>
+        <v>593292.3890792141</v>
       </c>
       <c r="R5" t="n">
-        <v>6987101.07452714</v>
+        <v>6987203.815111163</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363030</v>
+        <v>111363029</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>76918</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>6437</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593355.1995546351</v>
+        <v>593312.9580448985</v>
       </c>
       <c r="R6" t="n">
-        <v>6987156.520171621</v>
+        <v>6987010.291132212</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111363022</v>
+        <v>111363025</v>
       </c>
       <c r="B7" t="n">
-        <v>77186</v>
+        <v>89646</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>593324.9051589288</v>
+        <v>593292.3890792141</v>
       </c>
       <c r="R7" t="n">
-        <v>6987181.108611984</v>
+        <v>6987203.815111163</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111363021</v>
+        <v>111363031</v>
       </c>
       <c r="B9" t="n">
-        <v>89330</v>
+        <v>76918</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3242</v>
+        <v>6437</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>593278.356042281</v>
+        <v>593417.4633552339</v>
       </c>
       <c r="R9" t="n">
-        <v>6987153.408284122</v>
+        <v>6986985.556671137</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111363031</v>
+        <v>111363021</v>
       </c>
       <c r="B10" t="n">
-        <v>76918</v>
+        <v>89330</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6437</v>
+        <v>3242</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>593417.4633552339</v>
+        <v>593278.356042281</v>
       </c>
       <c r="R10" t="n">
-        <v>6986985.556671137</v>
+        <v>6987153.408284122</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111363025</v>
+        <v>111363028</v>
       </c>
       <c r="B11" t="n">
-        <v>89646</v>
+        <v>77186</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>593292.3890792141</v>
+        <v>593324.0129203054</v>
       </c>
       <c r="R11" t="n">
-        <v>6987203.815111163</v>
+        <v>6987101.07452714</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111363029</v>
+        <v>111363022</v>
       </c>
       <c r="B12" t="n">
-        <v>76918</v>
+        <v>77186</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>593312.9580448985</v>
+        <v>593324.9051589288</v>
       </c>
       <c r="R12" t="n">
-        <v>6987010.291132212</v>
+        <v>6987181.108611984</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 45020-2021.xlsx
+++ b/artfynd/A 45020-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111363030</v>
+        <v>111363020</v>
       </c>
       <c r="B2" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>593355.1995546351</v>
+        <v>593324.7367794912</v>
       </c>
       <c r="R2" t="n">
-        <v>6987156.520171621</v>
+        <v>6987171.102828567</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111363023</v>
+        <v>111363022</v>
       </c>
       <c r="B4" t="n">
-        <v>76918</v>
+        <v>77186</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>593269.3631576585</v>
+        <v>593324.9051589288</v>
       </c>
       <c r="R4" t="n">
-        <v>6987149.513888635</v>
+        <v>6987181.108611984</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111363026</v>
+        <v>111363030</v>
       </c>
       <c r="B5" t="n">
-        <v>90854</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2079</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>593292.3890792141</v>
+        <v>593355.1995546351</v>
       </c>
       <c r="R5" t="n">
-        <v>6987203.815111163</v>
+        <v>6987156.520171621</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111363029</v>
+        <v>111363023</v>
       </c>
       <c r="B6" t="n">
         <v>76918</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>593312.9580448985</v>
+        <v>593269.3631576585</v>
       </c>
       <c r="R6" t="n">
-        <v>6987010.291132212</v>
+        <v>6987149.513888635</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111363025</v>
+        <v>111363026</v>
       </c>
       <c r="B7" t="n">
-        <v>89646</v>
+        <v>90854</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>2079</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111363020</v>
+        <v>111363028</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>593324.7367794912</v>
+        <v>593324.0129203054</v>
       </c>
       <c r="R8" t="n">
-        <v>6987171.102828567</v>
+        <v>6987101.07452714</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111363031</v>
+        <v>111363021</v>
       </c>
       <c r="B9" t="n">
-        <v>76918</v>
+        <v>89330</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6437</v>
+        <v>3242</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>593417.4633552339</v>
+        <v>593278.356042281</v>
       </c>
       <c r="R9" t="n">
-        <v>6986985.556671137</v>
+        <v>6987153.408284122</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111363021</v>
+        <v>111363025</v>
       </c>
       <c r="B10" t="n">
-        <v>89330</v>
+        <v>89646</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3242</v>
+        <v>65</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>593278.356042281</v>
+        <v>593292.3890792141</v>
       </c>
       <c r="R10" t="n">
-        <v>6987153.408284122</v>
+        <v>6987203.815111163</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111363028</v>
+        <v>111363029</v>
       </c>
       <c r="B11" t="n">
-        <v>77186</v>
+        <v>76918</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>6437</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>593324.0129203054</v>
+        <v>593312.9580448985</v>
       </c>
       <c r="R11" t="n">
-        <v>6987101.07452714</v>
+        <v>6987010.291132212</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111363022</v>
+        <v>111363031</v>
       </c>
       <c r="B12" t="n">
-        <v>77186</v>
+        <v>76918</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>353</v>
+        <v>6437</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>593324.9051589288</v>
+        <v>593417.4633552339</v>
       </c>
       <c r="R12" t="n">
-        <v>6987181.108611984</v>
+        <v>6986985.556671137</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
